--- a/tests/testthat/testdata/struct_tests3.xlsx
+++ b/tests/testthat/testdata/struct_tests3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\analysis\UMARfetchR\tests\testthat\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1162CAC1-BC22-4B0F-9B11-DFB317E416E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AA0B71-D7E5-4C30-BB4C-77D014C1FA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21375" windowHeight="13380" activeTab="2" xr2:uid="{56BDC0FC-F623-441C-9561-FE4C66FBD294}"/>
+    <workbookView xWindow="3195" yWindow="1725" windowWidth="21375" windowHeight="13380" activeTab="2" xr2:uid="{56BDC0FC-F623-441C-9561-FE4C66FBD294}"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="29">
   <si>
     <t>source</t>
   </si>
@@ -95,6 +95,36 @@
   </si>
   <si>
     <t>sdt</t>
+  </si>
+  <si>
+    <t>umar--mz002--3--M</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>ffd</t>
+  </si>
+  <si>
+    <t>xcg</t>
+  </si>
+  <si>
+    <t>MZ001</t>
+  </si>
+  <si>
+    <t>MZ002</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Q</t>
   </si>
 </sst>
 </file>
@@ -447,15 +477,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717C39E7-59D3-4660-BD2C-EEA4FA6A8C31}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,16 +508,19 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -510,16 +543,19 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
       <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -542,16 +578,19 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -559,7 +598,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -574,10 +613,19 @@
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -585,7 +633,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -600,10 +648,13 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -611,7 +662,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -626,10 +677,13 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -637,7 +691,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -652,10 +706,13 @@
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -663,7 +720,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -678,6 +735,9 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -688,15 +748,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011CDDCF-7E4B-4911-9045-4E1B58C91D03}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="A1:XFD1048576"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -719,16 +779,19 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -751,10 +814,13 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -777,10 +843,13 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -803,10 +872,13 @@
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -829,10 +901,13 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -855,6 +930,9 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -865,15 +943,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0683E31-799D-4B9C-B1CE-E3274552A6B8}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -896,16 +974,19 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -928,16 +1009,19 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -960,16 +1044,19 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -992,16 +1079,19 @@
         <v>14</v>
       </c>
       <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1024,12 +1114,15 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>17</v>
       </c>
     </row>

--- a/tests/testthat/testdata/struct_tests3.xlsx
+++ b/tests/testthat/testdata/struct_tests3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\analysis\UMARfetchR\tests\testthat\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AA0B71-D7E5-4C30-BB4C-77D014C1FA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA56AAF-017F-4EF0-96EF-5E2975017FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="1725" windowWidth="21375" windowHeight="13380" activeTab="2" xr2:uid="{56BDC0FC-F623-441C-9561-FE4C66FBD294}"/>
+    <workbookView xWindow="3510" yWindow="1920" windowWidth="21375" windowHeight="13380" xr2:uid="{56BDC0FC-F623-441C-9561-FE4C66FBD294}"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717C39E7-59D3-4660-BD2C-EEA4FA6A8C31}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -945,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0683E31-799D-4B9C-B1CE-E3274552A6B8}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/testthat/testdata/struct_tests3.xlsx
+++ b/tests/testthat/testdata/struct_tests3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\analysis\UMARfetchR\tests\testthat\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA56AAF-017F-4EF0-96EF-5E2975017FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DFC71E-14DD-48E5-A752-76F34F84F720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1920" windowWidth="21375" windowHeight="13380" xr2:uid="{56BDC0FC-F623-441C-9561-FE4C66FBD294}"/>
+    <workbookView xWindow="2790" yWindow="2190" windowWidth="18900" windowHeight="11160" activeTab="2" xr2:uid="{56BDC0FC-F623-441C-9561-FE4C66FBD294}"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -73,9 +73,6 @@
     <t>umar</t>
   </si>
   <si>
-    <t>mz</t>
-  </si>
-  <si>
     <t>dfg</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>Q</t>
+  </si>
+  <si>
+    <t>Maja Založnik</t>
   </si>
 </sst>
 </file>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717C39E7-59D3-4660-BD2C-EEA4FA6A8C31}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +508,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -525,13 +525,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,19 +540,19 @@
         <v>234</v>
       </c>
       <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -560,13 +560,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -575,19 +575,19 @@
         <v>1123</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -610,19 +610,19 @@
         <v>1123</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
         <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -630,13 +630,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -645,13 +645,13 @@
         <v>1123</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -659,13 +659,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -674,13 +674,13 @@
         <v>1123</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -688,13 +688,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -703,13 +703,13 @@
         <v>1123</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -717,13 +717,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>8</v>
@@ -732,13 +732,13 @@
         <v>1123</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -751,7 +751,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B6" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +779,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -796,13 +796,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -811,13 +811,13 @@
         <v>1123</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -825,13 +825,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -840,13 +840,13 @@
         <v>1123</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -854,13 +854,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -869,13 +869,13 @@
         <v>1123</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -883,13 +883,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -898,13 +898,13 @@
         <v>1123</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -912,13 +912,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>8</v>
@@ -927,13 +927,13 @@
         <v>1123</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -945,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0683E31-799D-4B9C-B1CE-E3274552A6B8}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,7 +974,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -991,13 +991,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -1006,19 +1006,19 @@
         <v>234</v>
       </c>
       <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1026,13 +1026,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1041,19 +1041,19 @@
         <v>1123</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
         <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1061,13 +1061,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -1076,19 +1076,19 @@
         <v>234</v>
       </c>
       <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1096,13 +1096,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -1111,19 +1111,19 @@
         <v>1123</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
         <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/testdata/struct_tests3.xlsx
+++ b/tests/testthat/testdata/struct_tests3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\analysis\UMARfetchR\tests\testthat\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DFC71E-14DD-48E5-A752-76F34F84F720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF59A75-22E4-4A85-B038-B0FA27105EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="2190" windowWidth="18900" windowHeight="11160" activeTab="2" xr2:uid="{56BDC0FC-F623-441C-9561-FE4C66FBD294}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="18900" windowHeight="13440" activeTab="1" xr2:uid="{56BDC0FC-F623-441C-9561-FE4C66FBD294}"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="30">
   <si>
     <t>source</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Maja Založnik</t>
+  </si>
+  <si>
+    <t>new name</t>
   </si>
 </sst>
 </file>
@@ -750,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011CDDCF-7E4B-4911-9045-4E1B58C91D03}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B2:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +802,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -828,7 +831,7 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -857,7 +860,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -886,7 +889,7 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -915,7 +918,7 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -945,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0683E31-799D-4B9C-B1CE-E3274552A6B8}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
